--- a/category_dictionary.xlsx
+++ b/category_dictionary.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Category Dictionary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,12 +26,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="13"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,16 +50,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,422 +420,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="41.5703125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>MEISTERLABS VATERSTETTEN</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Car</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Internet</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>DELIVEROO DMCC DUBAI</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Food</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>GOOGLE*GOOGLE STORAGE SUPPORT.GOOGL</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Food</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Internet</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>ZOMATO MEDIA PVT LTD DUBAI</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Amazon.ae Dubai</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>MEISTERLABS VATERSTETTEN</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>DELIVEROO DMCC DUBAI</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GOOGLE*GOOGLE STORAGE SUPPORT.GOOGL</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>ZOMATO MEDIA PVT LTD DUBAI</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Amazon.ae Dubai</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>ETORO INTERNET</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>TOP GOLF REST DUBAI</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Fun</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>MCDONALDS-ENOC GARDENS DUBAI</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>ENOC-SITE NO-1025 DUBAI</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>DESCO COPY &amp; PRINT Dubai</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Work</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>MAJID AL FUTTAIM-HM IB DUBAI</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>FUEL UP DXB</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>EPPCO-SITE 7029 DUBAI</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>SKILLSHARE HTTPSWWW.SKIL</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MEISTERLABS VATERSTETTEN</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DELIVEROO DMCC DUBAI</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GOOGLE*GOOGLE STORAGE SUPPORT.GOOGL</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ZOMATO MEDIA PVT LTD DUBAI</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Amazon.ae Dubai</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ETORO INTERNET</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TOP GOLF REST DUBAI</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fun</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MCDONALDS-ENOC GARDENS DUBAI</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ENOC-SITE NO-1025 DUBAI</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>DESCO COPY &amp; PRINT Dubai</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Work</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MAJID AL FUTTAIM-HM IB DUBAI</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>FUEL UP DXB</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>EPPCO-SITE 7029 DUBAI</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SKILLSHARE HTTPSWWW.SKIL</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Internet</t>
         </is>
